--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2388705.545380857</v>
+        <v>-2391319.823997309</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>411.2146126744141</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>297.607293590734</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52.86845664851256</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>115.8619247783173</v>
+        <v>24.68614140826294</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.0186029205788</v>
       </c>
       <c r="V2" t="n">
-        <v>104.2459956392793</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -756,7 +756,7 @@
         <v>91.11034837618719</v>
       </c>
       <c r="I3" t="n">
-        <v>14.08691327674306</v>
+        <v>14.08691327674305</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>101.3331689251313</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,7 +826,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>100.3033462869334</v>
+        <v>100.3033462869333</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.83943180792917</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>192.0586035981866</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>286.2190043347733</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>195.0895680731933</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>108.5748211465611</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>122.7433563196723</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734075887</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.8885499332614</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>13.42874471570629</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>255.4384179530389</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>213.4331505673731</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>11.7671037116294</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>154.0058679980792</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576151</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>61.44013021076296</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016497</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>111.5512144998717</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>6.228861054225135</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179546</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>123.9815576456782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>186.5877792298975</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758733</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>194.9706438327684</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>103.878467376341</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788180551</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,10 +3484,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,7 +3661,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
         <v>124.3308255261727</v>
@@ -3670,16 +3670,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652586</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808201</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1629.777807337106</v>
+        <v>1187.019559281827</v>
       </c>
       <c r="C2" t="n">
-        <v>1629.777807337106</v>
+        <v>1187.019559281827</v>
       </c>
       <c r="D2" t="n">
-        <v>1271.512108730356</v>
+        <v>828.7538606750768</v>
       </c>
       <c r="E2" t="n">
-        <v>885.7238561321121</v>
+        <v>828.7538606750768</v>
       </c>
       <c r="F2" t="n">
-        <v>474.7379513425046</v>
+        <v>828.7538606750769</v>
       </c>
       <c r="G2" t="n">
-        <v>59.36965571178319</v>
+        <v>413.3855650443555</v>
       </c>
       <c r="H2" t="n">
-        <v>59.36965571178319</v>
+        <v>112.7721371749272</v>
       </c>
       <c r="I2" t="n">
-        <v>59.36965571178319</v>
+        <v>59.36965571178317</v>
       </c>
       <c r="J2" t="n">
         <v>223.6389510734998</v>
       </c>
       <c r="K2" t="n">
-        <v>520.5745606447449</v>
+        <v>520.5745606447445</v>
       </c>
       <c r="L2" t="n">
-        <v>925.8512030185038</v>
+        <v>925.851203018502</v>
       </c>
       <c r="M2" t="n">
-        <v>1408.468993552359</v>
+        <v>1408.468993552357</v>
       </c>
       <c r="N2" t="n">
-        <v>1903.50985287725</v>
+        <v>1903.509852877248</v>
       </c>
       <c r="O2" t="n">
-        <v>2357.627637384227</v>
+        <v>2357.627637384225</v>
       </c>
       <c r="P2" t="n">
-        <v>2710.705659215712</v>
+        <v>2710.705659215711</v>
       </c>
       <c r="Q2" t="n">
-        <v>2927.679802719474</v>
+        <v>2927.679802719473</v>
       </c>
       <c r="R2" t="n">
         <v>2968.482785589159</v>
       </c>
       <c r="S2" t="n">
-        <v>2851.450538338334</v>
+        <v>2943.547289217176</v>
       </c>
       <c r="T2" t="n">
-        <v>2851.450538338334</v>
+        <v>2943.547289217176</v>
       </c>
       <c r="U2" t="n">
-        <v>2851.450538338334</v>
+        <v>2689.993144852955</v>
       </c>
       <c r="V2" t="n">
-        <v>2746.151552844112</v>
+        <v>2689.993144852955</v>
       </c>
       <c r="W2" t="n">
-        <v>2393.382897573998</v>
+        <v>2337.224489582841</v>
       </c>
       <c r="X2" t="n">
-        <v>2019.917139312918</v>
+        <v>1963.758731321761</v>
       </c>
       <c r="Y2" t="n">
-        <v>1629.777807337106</v>
+        <v>1573.619399345949</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3103593400832</v>
+        <v>1341.528820902746</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8573300589562</v>
+        <v>1167.075791621619</v>
       </c>
       <c r="D3" t="n">
-        <v>607.922920397705</v>
+        <v>1018.141381960368</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6854653922495</v>
+        <v>858.9039269549123</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1509074191345</v>
+        <v>712.3693689817973</v>
       </c>
       <c r="G3" t="n">
-        <v>165.6295159672683</v>
+        <v>575.8479775299311</v>
       </c>
       <c r="H3" t="n">
-        <v>73.59886104182668</v>
+        <v>483.8173226044895</v>
       </c>
       <c r="I3" t="n">
-        <v>59.36965571178319</v>
+        <v>469.588117274446</v>
       </c>
       <c r="J3" t="n">
-        <v>138.3894757148952</v>
+        <v>548.6079372775581</v>
       </c>
       <c r="K3" t="n">
-        <v>351.6017589168903</v>
+        <v>761.8202204795532</v>
       </c>
       <c r="L3" t="n">
-        <v>684.6145268671329</v>
+        <v>1094.832988429796</v>
       </c>
       <c r="M3" t="n">
-        <v>1332.329405070861</v>
+        <v>1502.800049602477</v>
       </c>
       <c r="N3" t="n">
-        <v>1765.502785324652</v>
+        <v>1935.973429856269</v>
       </c>
       <c r="O3" t="n">
-        <v>2139.552005769182</v>
+        <v>2310.022650300799</v>
       </c>
       <c r="P3" t="n">
-        <v>2420.426415694429</v>
+        <v>2795.352273654697</v>
       </c>
       <c r="Q3" t="n">
-        <v>2558.264324026496</v>
+        <v>2933.190181986763</v>
       </c>
       <c r="R3" t="n">
-        <v>2558.264324026496</v>
+        <v>2968.482785589159</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.886246336681</v>
+        <v>2836.104707899344</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.605221056462</v>
+        <v>2642.823682619125</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.526960290582</v>
+        <v>2414.745421853245</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.374852058839</v>
+        <v>2179.593313621503</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.137495330638</v>
+        <v>1925.355956893301</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.285995125105</v>
+        <v>1717.504456687768</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.525696360151</v>
+        <v>1509.744157922814</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>605.6058476053653</v>
+        <v>627.6520830353617</v>
       </c>
       <c r="C4" t="n">
-        <v>605.6058476053653</v>
+        <v>458.7159001074548</v>
       </c>
       <c r="D4" t="n">
-        <v>455.4892081930295</v>
+        <v>308.599260695119</v>
       </c>
       <c r="E4" t="n">
-        <v>307.5761146106364</v>
+        <v>160.6861671127259</v>
       </c>
       <c r="F4" t="n">
-        <v>160.686167112726</v>
+        <v>160.6861671127259</v>
       </c>
       <c r="G4" t="n">
-        <v>160.686167112726</v>
+        <v>160.6861671127259</v>
       </c>
       <c r="H4" t="n">
-        <v>160.686167112726</v>
+        <v>160.6861671127259</v>
       </c>
       <c r="I4" t="n">
-        <v>59.36965571178319</v>
+        <v>59.36965571178317</v>
       </c>
       <c r="J4" t="n">
         <v>95.29667538945995</v>
       </c>
       <c r="K4" t="n">
-        <v>284.172641777821</v>
+        <v>284.1726417778211</v>
       </c>
       <c r="L4" t="n">
-        <v>581.3952856386279</v>
+        <v>581.3952856386281</v>
       </c>
       <c r="M4" t="n">
-        <v>905.1640129945959</v>
+        <v>905.1640129945961</v>
       </c>
       <c r="N4" t="n">
         <v>1226.66886009458</v>
       </c>
       <c r="O4" t="n">
-        <v>1507.614327944344</v>
+        <v>1507.614327944345</v>
       </c>
       <c r="P4" t="n">
-        <v>1724.491028290281</v>
+        <v>1724.491028290282</v>
       </c>
       <c r="Q4" t="n">
-        <v>1791.210133852897</v>
+        <v>1791.210133852898</v>
       </c>
       <c r="R4" t="n">
-        <v>1695.412727986302</v>
+        <v>1791.210133852898</v>
       </c>
       <c r="S4" t="n">
-        <v>1501.414138493185</v>
+        <v>1791.210133852898</v>
       </c>
       <c r="T4" t="n">
-        <v>1501.414138493185</v>
+        <v>1791.210133852898</v>
       </c>
       <c r="U4" t="n">
-        <v>1212.304033104525</v>
+        <v>1502.100028464238</v>
       </c>
       <c r="V4" t="n">
-        <v>1212.304033104525</v>
+        <v>1247.415540258351</v>
       </c>
       <c r="W4" t="n">
-        <v>1015.243863333622</v>
+        <v>957.9983702213904</v>
       </c>
       <c r="X4" t="n">
-        <v>787.254312435605</v>
+        <v>730.008819323373</v>
       </c>
       <c r="Y4" t="n">
-        <v>787.254312435605</v>
+        <v>730.008819323373</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.836054204827</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
         <v>1572.164517693149</v>
@@ -4553,64 +4553,64 @@
         <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>417.124661698547</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3091.331964934574</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3091.331964934574</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>3091.331964934574</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>3091.331964934574</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>2717.866206673495</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204827</v>
+        <v>2327.726874697683</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533339</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>456.9449278938906</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>456.9449278938906</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4720,55 +4720,55 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1666.869595963939</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T7" t="n">
-        <v>1445.102980533465</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="U7" t="n">
-        <v>1156.000113659108</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="V7" t="n">
-        <v>1156.000113659108</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="W7" t="n">
-        <v>866.5829436221477</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>638.5933927241304</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>638.5933927241304</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.400891308158</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.438374367746</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.172675760996</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>2952.140063348092</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.00073137228</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4911,16 +4911,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X9" t="n">
         <v>1317.51949026613</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>773.7942044041906</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>604.8580214762837</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1915.408584743413</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1915.408584743413</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T10" t="n">
-        <v>1693.641969312938</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U10" t="n">
-        <v>1693.641969312938</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="V10" t="n">
-        <v>1693.641969312938</v>
+        <v>1358.280565658501</v>
       </c>
       <c r="W10" t="n">
-        <v>1404.224799275978</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="X10" t="n">
-        <v>1176.23524837796</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y10" t="n">
-        <v>955.4426692344304</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="11">
@@ -5030,25 +5030,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5066,7 +5066,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2223.769289033212</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703066</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826423997</v>
+        <v>929.7309773356196</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
@@ -5194,10 +5194,10 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038341</v>
@@ -5209,40 +5209,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487562</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510503</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854702</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648815</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611854</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138368</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703066</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5255,13 +5255,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,13 +5270,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5285,34 +5285,34 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>251.5626541092265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1022.872235754092</v>
+        <v>571.6607764188002</v>
       </c>
       <c r="C16" t="n">
-        <v>853.9360528261848</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="D16" t="n">
-        <v>703.819413413849</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="E16" t="n">
-        <v>555.9063198314559</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="F16" t="n">
-        <v>409.0163723335455</v>
+        <v>402.7245934908934</v>
       </c>
       <c r="G16" t="n">
-        <v>241.8202730484254</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>100.1084418906235</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831766</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625879</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W16" t="n">
-        <v>1653.302830625879</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X16" t="n">
-        <v>1425.313279727861</v>
+        <v>974.1018203925701</v>
       </c>
       <c r="Y16" t="n">
-        <v>1204.520700584331</v>
+        <v>753.3092412490399</v>
       </c>
     </row>
     <row r="17">
@@ -5507,40 +5507,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400716</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C19" t="n">
-        <v>388.6197041282754</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5695,7 +5695,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
@@ -5707,16 +5707,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138413</v>
+        <v>982.5066286471042</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703113</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>228.9331431646413</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>562.8579153358619</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511909</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C22" t="n">
-        <v>779.614337923284</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>779.614337923284</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408908</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429804</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797744</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.19898568143</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,22 +6005,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>913.2907898186995</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400719</v>
+        <v>571.6607764188004</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400719</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400719</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="E25" t="n">
-        <v>365.9405071576788</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="F25" t="n">
-        <v>365.9405071576788</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="G25" t="n">
-        <v>198.7444078725587</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797189</v>
@@ -6148,7 +6148,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925703</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703116</v>
+        <v>753.3092412490402</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C28" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6406,13 +6406,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
         <v>1978.840049838286</v>
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,16 +6534,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6555,10 +6555,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6646,7 +6646,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,13 +6710,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6892,13 +6892,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3324.292621228102</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3951.890584782709</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319315</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656809</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,31 +7114,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,13 +7184,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,31 +7351,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380723</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>242.1695121525722</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>206.5204176046985</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.872575263447089</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>2.345373895096259e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>297.6072935907341</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851259</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>91.17578337005439</v>
       </c>
       <c r="T2" t="n">
         <v>205.2000830738755</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0186029205788</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>223.5062628308556</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>78.49881125680595</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.1571872936354</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>94.83943180792916</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>192.0586035981866</v>
       </c>
       <c r="T4" t="n">
         <v>220.1102960603998</v>
@@ -22762,10 +22762,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>91.4334302633977</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>87.1753428074494</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>105.8542358274165</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>75.03697526434038</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>43.26526345294965</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>65.54986409393049</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>30.73901155626884</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>36.41624546988291</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856548</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194107</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1383738.154808244</v>
+        <v>1383738.154808245</v>
       </c>
     </row>
     <row r="8">
@@ -26317,43 +26317,43 @@
         <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.3299845003</v>
       </c>
       <c r="F2" t="n">
-        <v>40357.32998450033</v>
+        <v>40357.3299845003</v>
       </c>
       <c r="G2" t="n">
-        <v>40357.32998450033</v>
+        <v>40357.32998450029</v>
       </c>
       <c r="H2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.32998450027</v>
       </c>
       <c r="I2" t="n">
-        <v>40357.3299845003</v>
+        <v>40357.32998450029</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="K2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="M2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="O2" t="n">
+        <v>41052.08849321419</v>
+      </c>
+      <c r="P2" t="n">
         <v>41052.08849321417</v>
-      </c>
-      <c r="P2" t="n">
-        <v>41052.08849321419</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1228620.061871474</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.49343973036</v>
+        <v>95186.49343972946</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.831190103490743e-11</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
         <v>213599.1454818042</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.01038359955</v>
+        <v>22978.0103835995</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363172</v>
+        <v>19427.71799363174</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17443.3632666228</v>
+        <v>17443.36326662281</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316957</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316938</v>
+        <v>91573.95495316951</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181806</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.7794449116</v>
       </c>
       <c r="K4" t="n">
-        <v>20377.77944491156</v>
+        <v>20377.7794449116</v>
       </c>
       <c r="L4" t="n">
         <v>20377.77944491159</v>
       </c>
       <c r="M4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.77944491161</v>
       </c>
       <c r="N4" t="n">
         <v>20377.77944491159</v>
       </c>
       <c r="O4" t="n">
-        <v>20377.7794449116</v>
+        <v>20377.77944491159</v>
       </c>
       <c r="P4" t="n">
-        <v>20377.7794449116</v>
+        <v>20377.77944491161</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>100917.4173209746</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1314519.931297635</v>
+        <v>-1314949.490164224</v>
       </c>
       <c r="C6" t="n">
-        <v>-253642.3004610789</v>
+        <v>-253642.3004610781</v>
       </c>
       <c r="D6" t="n">
-        <v>-158455.8070213485</v>
+        <v>-158455.8070213486</v>
       </c>
       <c r="E6" t="n">
-        <v>-398564.5818285802</v>
+        <v>-398599.3197540163</v>
       </c>
       <c r="F6" t="n">
-        <v>-73152.1200212249</v>
+        <v>-73186.85794666068</v>
       </c>
       <c r="G6" t="n">
-        <v>-73152.1200212249</v>
+        <v>-73186.85794666065</v>
       </c>
       <c r="H6" t="n">
-        <v>-73152.12002122494</v>
+        <v>-73186.85794666069</v>
       </c>
       <c r="I6" t="n">
-        <v>-73152.12002122498</v>
+        <v>-73186.85794666069</v>
       </c>
       <c r="J6" t="n">
         <v>-296088.952287417</v>
       </c>
       <c r="K6" t="n">
-        <v>-105467.8171892124</v>
+        <v>-105467.8171892123</v>
       </c>
       <c r="L6" t="n">
-        <v>-82489.80680561278</v>
+        <v>-82489.8068056128</v>
       </c>
       <c r="M6" t="n">
-        <v>-167544.8347411246</v>
+        <v>-167544.8347411248</v>
       </c>
       <c r="N6" t="n">
         <v>-82489.80680561278</v>
@@ -26561,7 +26561,7 @@
         <v>-101917.5247992446</v>
       </c>
       <c r="P6" t="n">
-        <v>-82489.80680561281</v>
+        <v>-82489.80680561284</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26787,34 +26787,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972899</v>
+        <v>742.1206963972896</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.538987629363429e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1016.921054129329</v>
       </c>
       <c r="C3" t="n">
-        <v>72.85564646396938</v>
+        <v>72.85564646396847</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972899</v>
+        <v>742.1206963972896</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28075900500278</v>
+        <v>89.28075900500255</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972899</v>
+        <v>742.1206963972896</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500278</v>
+        <v>89.28075900500255</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.538987629363429e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972899</v>
+        <v>742.1206963972896</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500278</v>
+        <v>89.28075900500255</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>256.6980706244464</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>81.17461381994782</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S7" t="n">
-        <v>20.88047539818049</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>273.0942536208847</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>126.4919521192229</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>114.3191079027618</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>77.16504895841794</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>98.13177532574881</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-4.031806505410043e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,10 +31039,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.088124840720917</v>
+        <v>4.088124840720918</v>
       </c>
       <c r="H2" t="n">
-        <v>41.8675085250331</v>
+        <v>41.86750852503312</v>
       </c>
       <c r="I2" t="n">
         <v>157.6074329218933</v>
@@ -31051,37 +31051,37 @@
         <v>346.9744857001373</v>
       </c>
       <c r="K2" t="n">
-        <v>520.0248102078538</v>
+        <v>520.0248102078539</v>
       </c>
       <c r="L2" t="n">
-        <v>645.1367608020666</v>
+        <v>645.1367608020669</v>
       </c>
       <c r="M2" t="n">
-        <v>717.8389509382373</v>
+        <v>717.8389509382374</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419357</v>
+        <v>729.4543356419358</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570169</v>
+        <v>688.8030442570172</v>
       </c>
       <c r="P2" t="n">
-        <v>587.8774622517193</v>
+        <v>587.8774622517194</v>
       </c>
       <c r="Q2" t="n">
-        <v>441.4714913934013</v>
+        <v>441.4714913934014</v>
       </c>
       <c r="R2" t="n">
         <v>256.8006720259356</v>
       </c>
       <c r="S2" t="n">
-        <v>93.158144807928</v>
+        <v>93.15814480792801</v>
       </c>
       <c r="T2" t="n">
-        <v>17.89576649025582</v>
+        <v>17.89576649025583</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3270499872576733</v>
+        <v>0.3270499872576734</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.187339625863085</v>
+        <v>2.187339625863086</v>
       </c>
       <c r="H3" t="n">
-        <v>21.12509586030927</v>
+        <v>21.12509586030928</v>
       </c>
       <c r="I3" t="n">
-        <v>75.30971957467202</v>
+        <v>75.30971957467203</v>
       </c>
       <c r="J3" t="n">
         <v>206.6556266698102</v>
@@ -31133,19 +31133,19 @@
         <v>353.2073816026369</v>
       </c>
       <c r="L3" t="n">
-        <v>474.9309130629475</v>
+        <v>474.9309130629476</v>
       </c>
       <c r="M3" t="n">
-        <v>554.2219745004842</v>
+        <v>554.2219745004843</v>
       </c>
       <c r="N3" t="n">
-        <v>568.8905810265574</v>
+        <v>568.8905810265575</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4237398429594</v>
+        <v>520.4237398429595</v>
       </c>
       <c r="P3" t="n">
-        <v>417.6859325913465</v>
+        <v>417.6859325913466</v>
       </c>
       <c r="Q3" t="n">
         <v>279.2119845224528</v>
@@ -31154,10 +31154,10 @@
         <v>135.8069287005169</v>
       </c>
       <c r="S3" t="n">
-        <v>40.62887419092175</v>
+        <v>40.62887419092176</v>
       </c>
       <c r="T3" t="n">
-        <v>8.816513667404273</v>
+        <v>8.816513667404275</v>
       </c>
       <c r="U3" t="n">
         <v>0.1439039227541504</v>
@@ -31203,40 +31203,40 @@
         <v>16.30407853997515</v>
       </c>
       <c r="I4" t="n">
-        <v>55.14712864032493</v>
+        <v>55.14712864032494</v>
       </c>
       <c r="J4" t="n">
-        <v>129.6490989830129</v>
+        <v>129.649098983013</v>
       </c>
       <c r="K4" t="n">
-        <v>213.0532962585708</v>
+        <v>213.0532962585709</v>
       </c>
       <c r="L4" t="n">
-        <v>272.6348675283778</v>
+        <v>272.6348675283779</v>
       </c>
       <c r="M4" t="n">
-        <v>287.4552415795412</v>
+        <v>287.4552415795413</v>
       </c>
       <c r="N4" t="n">
-        <v>280.6201984288361</v>
+        <v>280.6201984288362</v>
       </c>
       <c r="O4" t="n">
-        <v>259.1981729443083</v>
+        <v>259.1981729443084</v>
       </c>
       <c r="P4" t="n">
-        <v>221.7888148219112</v>
+        <v>221.7888148219113</v>
       </c>
       <c r="Q4" t="n">
         <v>153.5550791735287</v>
       </c>
       <c r="R4" t="n">
-        <v>82.45395956924031</v>
+        <v>82.45395956924033</v>
       </c>
       <c r="S4" t="n">
-        <v>31.95799443878562</v>
+        <v>31.95799443878563</v>
       </c>
       <c r="T4" t="n">
-        <v>7.835293367881712</v>
+        <v>7.835293367881714</v>
       </c>
       <c r="U4" t="n">
         <v>0.100025021717639</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0225991093084</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>265.5442652399242</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>471.1883883160951</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>261.5336801130326</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>477.8500485393211</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>614.7544723218302</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>271.1474903386687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>328.903832042181</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>681.5735157229393</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,31 +34205,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34445,10 +34445,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>165.928581173451</v>
+        <v>165.9285811734511</v>
       </c>
       <c r="K2" t="n">
-        <v>299.9349591628732</v>
+        <v>299.9349591628733</v>
       </c>
       <c r="L2" t="n">
-        <v>409.3703458320794</v>
+        <v>409.3703458320796</v>
       </c>
       <c r="M2" t="n">
-        <v>487.4927177109646</v>
+        <v>487.4927177109647</v>
       </c>
       <c r="N2" t="n">
-        <v>500.0412720453448</v>
+        <v>500.0412720453449</v>
       </c>
       <c r="O2" t="n">
-        <v>458.7048328353302</v>
+        <v>458.7048328353304</v>
       </c>
       <c r="P2" t="n">
-        <v>356.6444664964498</v>
+        <v>356.6444664964499</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.1658015189518</v>
+        <v>219.1658015189519</v>
       </c>
       <c r="R2" t="n">
-        <v>41.21513421180344</v>
+        <v>41.2151342118035</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79.81800000314348</v>
+        <v>79.81800000314354</v>
       </c>
       <c r="K3" t="n">
         <v>215.3659426282779</v>
       </c>
       <c r="L3" t="n">
-        <v>336.3765332830733</v>
+        <v>336.3765332830734</v>
       </c>
       <c r="M3" t="n">
-        <v>654.257452731038</v>
+        <v>412.087940578466</v>
       </c>
       <c r="N3" t="n">
-        <v>437.5488689432241</v>
+        <v>437.5488689432242</v>
       </c>
       <c r="O3" t="n">
-        <v>377.827495398515</v>
+        <v>377.8274953985151</v>
       </c>
       <c r="P3" t="n">
-        <v>283.7115251770163</v>
+        <v>490.2319427817148</v>
       </c>
       <c r="Q3" t="n">
         <v>139.2302104364313</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>35.64909454787376</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.28991886634017</v>
+        <v>36.2899188663402</v>
       </c>
       <c r="K4" t="n">
         <v>190.783804432688</v>
@@ -34863,19 +34863,19 @@
         <v>300.224892788694</v>
       </c>
       <c r="M4" t="n">
-        <v>327.0391185413818</v>
+        <v>327.0391185413819</v>
       </c>
       <c r="N4" t="n">
-        <v>324.7523708080647</v>
+        <v>324.7523708080648</v>
       </c>
       <c r="O4" t="n">
-        <v>283.783300858348</v>
+        <v>283.7833008583481</v>
       </c>
       <c r="P4" t="n">
-        <v>219.0673740868047</v>
+        <v>219.0673740868048</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.39303592183428</v>
+        <v>67.39303592183431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306614</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789354</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>8.181160134949373</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295339</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>134.202553156591</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>328.5921438716507</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>134.6960534463659</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295339</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>339.2956687594469</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36522,13 +36522,13 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>476.2000925419561</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,19 +36753,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,22 +36914,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>128.5512458942243</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>550.231803639606</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38093,10 +38093,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>44.09163190712619</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
